--- a/outputs-HGR-r202/g__CAG-590.xlsx
+++ b/outputs-HGR-r202/g__CAG-590.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__CAG-590 sp000431135</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__CAG-590 sp000431135</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__CAG-590 sp000431135</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__CAG-590 sp000431135</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__CAG-590 sp000431135</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__CAG-590 sp000431135</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -574,6 +594,11 @@
         <v>0.8863358246144828</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>s__CAG-590 sp000431135</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>s__CAG-590 sp000431135</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-590.xlsx
+++ b/outputs-HGR-r202/g__CAG-590.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,102 +508,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73407.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9190046908021287</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01029800090771874</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07049074325032699</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0002065650398255757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9190046908021287</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83214.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8208250292407893</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04937824270046313</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07011271655639877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0596840115023488</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8208250292407893</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83835.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8863358246144828</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02897987061091541</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0762105871719793</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008473717602622617</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8863358246144828</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__CAG-590 sp000431135</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
